--- a/LocalProgram/upload/uploadingData.xlsx
+++ b/LocalProgram/upload/uploadingData.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenziping/Desktop/20200918AAB/AABKoala/Local Program/upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenziping/Desktop/20200918AAB/AABKoala/LocalProgram/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E799D45D-C5FC-C545-94AD-0810A0680EBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2204AF84-A9A9-3545-BD45-BA11C5B3F2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2740" windowWidth="27840" windowHeight="16940" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
+    <workbookView xWindow="4200" yWindow="2700" windowWidth="27840" windowHeight="16940" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -127,24 +127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TRP_6</t>
-  </si>
-  <si>
-    <t>TRP_15</t>
-  </si>
-  <si>
-    <t>TRP_18</t>
-  </si>
-  <si>
-    <t>TRP_6FFF</t>
-  </si>
-  <si>
-    <t>TRP_10FFF</t>
-  </si>
-  <si>
-    <t>TRP_10</t>
-  </si>
-  <si>
     <t>Reading_101106</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -445,6 +427,24 @@
   <si>
     <t>Acu</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPR_6</t>
+  </si>
+  <si>
+    <t>TPR_10</t>
+  </si>
+  <si>
+    <t>TPR_15</t>
+  </si>
+  <si>
+    <t>TPR_18</t>
+  </si>
+  <si>
+    <t>TPR_6FFF</t>
+  </si>
+  <si>
+    <t>TPR_10FFF</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -517,7 +517,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0E457-5FC7-BA47-BE39-F879CFE5AF79}">
   <dimension ref="A1:DA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="DB2" sqref="DB2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -934,250 +934,250 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="AJ1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AK1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AL1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AM1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AN1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AO1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AP1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AQ1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AR1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AS1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AT1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AU1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AV1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AW1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AX1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AY1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AZ1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BA1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BB1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BC1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BD1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BE1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BF1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BG1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BH1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BI1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BJ1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BK1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BL1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BM1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BN1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BO1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BP1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BR1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BS1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BT1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BU1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BV1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BQ1" t="s">
+      <c r="BW1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BX1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BY1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BZ1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CA1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CB1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CC1" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CD1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CE1" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CF1" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CG1" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CH1" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CI1" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CJ1" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CK1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CL1" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CM1" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CN1" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CO1" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CP1" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CQ1" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CR1" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CS1" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CT1" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CU1" t="s">
         <v>91</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CV1" t="s">
         <v>92</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CW1" t="s">
         <v>93</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CX1" t="s">
         <v>94</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CY1" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CZ1" t="s">
         <v>96</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="DA1" t="s">
         <v>97</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:105">
@@ -1185,43 +1185,43 @@
         <v>3081</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H2" s="3">
         <v>42648</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="R2">
         <v>1.002</v>

--- a/LocalProgram/upload/uploadingData.xlsx
+++ b/LocalProgram/upload/uploadingData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenziping/Desktop/20200918AAB/AABKoala/LocalProgram/upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwan\Desktop\CloneTest\LocalProgram\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2204AF84-A9A9-3545-BD45-BA11C5B3F2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEADCB5-F076-4851-97FB-4DC3B9EBD971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2700" windowWidth="27840" windowHeight="16940" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -850,17 +850,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0E457-5FC7-BA47-BE39-F879CFE5AF79}">
   <dimension ref="A1:DA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:AC1"/>
+    <sheetView tabSelected="1" topLeftCell="CU1" workbookViewId="0">
+      <selection activeCell="DC9" sqref="DC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.80859375" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.80859375" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="68" max="68" width="10.83203125" customWidth="1"/>
+    <col min="68" max="68" width="10.80859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:105">
@@ -1501,5 +1501,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LocalProgram/upload/uploadingData.xlsx
+++ b/LocalProgram/upload/uploadingData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenziping/Desktop/20200918AAB/AABKoala/LocalProgram/upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwan\Desktop\SD\LocalProgram\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B27A251-8DB1-EA44-8130-B83F6194DD99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D55790-5303-4036-B0FD-FABEF9AB63B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67920" yWindow="15300" windowWidth="38700" windowHeight="22460" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Andrew Alves</author>
+  </authors>
+  <commentList>
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{ADE090D9-932C-4B6B-A1B1-8974DAF53381}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Andrew Alves:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+point 3 not measured</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{C1391B5A-8F01-4F9A-B4FA-58384EF52AB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Andrew Alves:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+point 3 not measured</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{BBC4D8B3-94F5-4974-AF78-9C96A5AB2D5A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Andrew Alves:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FFF case 1 not measured</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
   <si>
     <t>Reading_101106</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,29 +455,69 @@
     <t>Phantom</t>
   </si>
   <si>
+    <t>fac_10</t>
+  </si>
+  <si>
+    <t>fac_15</t>
+  </si>
+  <si>
+    <t>fac_18</t>
+  </si>
+  <si>
+    <t>fac_6FFF</t>
+  </si>
+  <si>
+    <t>fac_10FFF</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Q3 2012</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>African Bush Elephant</t>
+  </si>
+  <si>
+    <t>FAC-053</t>
+  </si>
+  <si>
+    <t>Velvet</t>
+  </si>
+  <si>
+    <t>72EER</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>IHP</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Red Anne</t>
+  </si>
+  <si>
     <t>fac_6</t>
-  </si>
-  <si>
-    <t>fac_10</t>
-  </si>
-  <si>
-    <t>fac_15</t>
-  </si>
-  <si>
-    <t>fac_18</t>
-  </si>
-  <si>
-    <t>fac_6FFF</t>
-  </si>
-  <si>
-    <t>fac_10FFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,16 +540,42 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -450,25 +598,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF99FF99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF99FF99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -788,115 +1021,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0E457-5FC7-BA47-BE39-F879CFE5AF79}">
-  <dimension ref="A1:DB1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0E457-5FC7-BA47-BE39-F879CFE5AF79}">
+  <dimension ref="A1:DB3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.80859375" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.80859375" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="31" max="31" width="39.83203125" customWidth="1"/>
+    <col min="31" max="31" width="39.80859375" customWidth="1"/>
     <col min="32" max="32" width="28.6640625" customWidth="1"/>
     <col min="33" max="33" width="32.33203125" customWidth="1"/>
     <col min="68" max="68" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" s="2" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:106" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>81</v>
       </c>
       <c r="AE1" t="s">
@@ -1128,19 +1361,134 @@
         <v>74</v>
       </c>
     </row>
+    <row r="2" spans="1:106" s="3" customFormat="1">
+      <c r="B2" s="4">
+        <v>3006</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="7">
+        <v>41121</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="S2" s="8">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="T2" s="8">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="U2" s="8">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="V2" s="8">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="W2" s="8">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="X2" s="8">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>-0.996</v>
+      </c>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8">
+        <v>0.998</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>1.008</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:106" s="9" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1 D1:E1 G1:W1">
-    <cfRule type="expression" dxfId="1" priority="53">
+  <conditionalFormatting sqref="A1:B1 G1:W1 B2 D1:E2 I2:R2">
+    <cfRule type="expression" dxfId="9" priority="166">
       <formula>IF(ISNA(A1),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:AC1">
-    <cfRule type="expression" dxfId="0" priority="52">
+    <cfRule type="expression" dxfId="8" priority="165">
       <formula>IF(ISNA(X1),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>IF(L2="Elekta",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="13">
+      <formula>IF(L2="Varian",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>IF(N2="Monaco",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>IF(N2="Xio",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>IF(N2="Pinnacle",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="9">
+      <formula>IF(N2="Eclipse",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:Z2">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(ISNA(S2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AD2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(ISNA(AA2),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/LocalProgram/upload/uploadingData.xlsx
+++ b/LocalProgram/upload/uploadingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwan\Desktop\SD\LocalProgram\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D55790-5303-4036-B0FD-FABEF9AB63B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA01691-CDAC-41FD-A944-3D36E6FAEAD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="128">
   <si>
     <t>Reading_101106</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,109 +404,162 @@
     <t>id</t>
   </si>
   <si>
+    <t>fac_10</t>
+  </si>
+  <si>
+    <t>fac_15</t>
+  </si>
+  <si>
+    <t>fac_18</t>
+  </si>
+  <si>
+    <t>fac_6FFF</t>
+  </si>
+  <si>
+    <t>fac_10FFF</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Q3 2012</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>IHP</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Red Anne</t>
+  </si>
+  <si>
+    <t>fac_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAC-054</t>
+  </si>
+  <si>
+    <t>Q3 2013</t>
+  </si>
+  <si>
+    <t>73EER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">African Bush </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AuditID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAC-055</t>
+  </si>
+  <si>
+    <t>Q3 2014</t>
+  </si>
+  <si>
+    <t>74EER</t>
   </si>
   <si>
     <t>RevisionNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FacilityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>African Bush rr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FacilityID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Auditor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Auditor2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Auditor3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AuditDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RepDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LinacModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Velss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LinacManufacturer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PlanningSystemManufacturer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kqFac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ACDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Phantom</t>
-  </si>
-  <si>
-    <t>fac_10</t>
-  </si>
-  <si>
-    <t>fac_15</t>
-  </si>
-  <si>
-    <t>fac_18</t>
-  </si>
-  <si>
-    <t>fac_6FFF</t>
-  </si>
-  <si>
-    <t>fac_10FFF</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Q3 2012</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>African Bush Elephant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>African Bush r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FAC-053</t>
   </si>
   <si>
-    <t>Velvet</t>
-  </si>
-  <si>
     <t>72EER</t>
   </si>
   <si>
-    <t>Roland</t>
-  </si>
-  <si>
-    <t>IHP</t>
-  </si>
-  <si>
-    <t>Mountain</t>
-  </si>
-  <si>
-    <t>Red Anne</t>
-  </si>
-  <si>
-    <t>fac_6</t>
+    <t>80 00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,8 +567,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -617,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,14 +697,24 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF99FF99"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF99FF99"/>
@@ -1022,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0E457-5FC7-BA47-BE39-F879CFE5AF79}">
-  <dimension ref="A1:DB3"/>
+  <dimension ref="A1:DB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
@@ -1035,6 +1100,7 @@
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="11" max="11" width="19.80859375" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="19" max="19" width="17.234375" customWidth="1"/>
     <col min="31" max="31" width="39.80859375" customWidth="1"/>
     <col min="32" max="32" width="28.6640625" customWidth="1"/>
     <col min="33" max="33" width="32.33203125" customWidth="1"/>
@@ -1046,73 +1112,73 @@
         <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>76</v>
@@ -1362,53 +1428,56 @@
       </c>
     </row>
     <row r="2" spans="1:106" s="3" customFormat="1">
-      <c r="B2" s="4">
-        <v>3006</v>
+      <c r="B2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="I2" s="7">
         <v>41121</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="S2" s="8">
-        <v>-5.0000000000000001E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="T2" s="8">
         <v>-8.0000000000000002E-3</v>
@@ -1425,10 +1494,13 @@
       <c r="X2" s="8">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="Y2" s="8">
-        <v>-0.996</v>
-      </c>
-      <c r="Z2" s="8"/>
+      <c r="Y2" s="10">
+        <f>-Y3</f>
+        <v>0.996</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>-0.99690000000000001</v>
+      </c>
       <c r="AA2" s="8">
         <v>0.998</v>
       </c>
@@ -1441,54 +1513,917 @@
       <c r="AD2" s="8">
         <v>0.997</v>
       </c>
+      <c r="AE2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AL2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AM2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AN2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AO2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AP2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AQ2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AR2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AS2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AT2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AU2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AV2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AW2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AX2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AY2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AZ2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BA2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BB2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BC2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BD2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BE2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BF2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BG2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BH2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BI2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BJ2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BK2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BL2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BM2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BN2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BO2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BP2" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BQ2" s="8">
+        <v>9</v>
+      </c>
+      <c r="BR2" s="8">
+        <v>9</v>
+      </c>
+      <c r="BS2" s="8">
+        <v>9</v>
+      </c>
+      <c r="BT2" s="8">
+        <v>9</v>
+      </c>
+      <c r="BU2" s="8">
+        <v>9</v>
+      </c>
+      <c r="BV2" s="8">
+        <v>9</v>
+      </c>
+      <c r="BW2" s="8">
+        <v>9</v>
+      </c>
+      <c r="BX2" s="8">
+        <v>9</v>
+      </c>
+      <c r="BY2" s="8">
+        <v>9</v>
+      </c>
+      <c r="BZ2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CA2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CB2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CC2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CD2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CE2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CF2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CG2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CH2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CI2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CJ2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CK2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CL2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CM2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CN2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CO2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CP2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CQ2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CR2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CS2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CT2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CU2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CV2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CW2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CX2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CY2" s="8">
+        <v>9</v>
+      </c>
+      <c r="CZ2" s="8">
+        <v>9</v>
+      </c>
+      <c r="DA2" s="8">
+        <v>9</v>
+      </c>
+      <c r="DB2" s="8">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:106" s="9" customFormat="1"/>
+    <row r="3" spans="1:106" s="3" customFormat="1">
+      <c r="B3" s="4">
+        <v>8000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="7">
+        <v>41122</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" s="8">
+        <v>-1E-3</v>
+      </c>
+      <c r="T3" s="8">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="U3" s="8">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="V3" s="8">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="W3" s="8">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="X3" s="8">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>-0.996</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>-0.996</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>0.998</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>1.008</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AM3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AN3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AO3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AP3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AQ3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AR3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AS3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AT3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AU3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AV3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AW3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AX3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AY3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AZ3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BA3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BB3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BC3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BD3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BE3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BF3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BG3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BH3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BI3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BJ3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BK3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BL3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BM3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BN3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BO3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BP3" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BQ3" s="8">
+        <v>9</v>
+      </c>
+      <c r="BR3" s="8">
+        <v>9</v>
+      </c>
+      <c r="BS3" s="8">
+        <v>9</v>
+      </c>
+      <c r="BT3" s="8">
+        <v>9</v>
+      </c>
+      <c r="BU3" s="8">
+        <v>9</v>
+      </c>
+      <c r="BV3" s="8">
+        <v>9</v>
+      </c>
+      <c r="BW3" s="8">
+        <v>9</v>
+      </c>
+      <c r="BX3" s="8">
+        <v>9</v>
+      </c>
+      <c r="BY3" s="8">
+        <v>9</v>
+      </c>
+      <c r="BZ3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CA3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CB3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CC3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CD3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CE3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CF3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CG3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CH3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CI3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CJ3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CK3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CL3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CM3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CN3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CO3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CP3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CQ3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CR3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CS3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CT3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CU3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CV3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CW3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CX3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CY3" s="8">
+        <v>9</v>
+      </c>
+      <c r="CZ3" s="8">
+        <v>9</v>
+      </c>
+      <c r="DA3" s="8">
+        <v>9</v>
+      </c>
+      <c r="DB3" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:106" s="3" customFormat="1">
+      <c r="B4" s="4">
+        <v>8000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="7">
+        <v>41123</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="8">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="T4" s="8">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="U4" s="8">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="V4" s="8">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="W4" s="8">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="X4" s="8">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>-0.996</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>-0.996</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>0.998</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>1.008</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AO4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AP4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AQ4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AR4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AS4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AT4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AU4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AV4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AW4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AX4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AY4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="AZ4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BA4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BB4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BC4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BD4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BE4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BF4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BG4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BH4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BI4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BJ4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BK4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BL4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BM4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BN4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BO4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BP4" s="8">
+        <v>0.997</v>
+      </c>
+      <c r="BQ4" s="8">
+        <v>9</v>
+      </c>
+      <c r="BR4" s="8">
+        <v>9</v>
+      </c>
+      <c r="BS4" s="8">
+        <v>9</v>
+      </c>
+      <c r="BT4" s="8">
+        <v>9</v>
+      </c>
+      <c r="BU4" s="8">
+        <v>9</v>
+      </c>
+      <c r="BV4" s="8">
+        <v>9</v>
+      </c>
+      <c r="BW4" s="8">
+        <v>9</v>
+      </c>
+      <c r="BX4" s="8">
+        <v>9</v>
+      </c>
+      <c r="BY4" s="8">
+        <v>9</v>
+      </c>
+      <c r="BZ4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CA4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CB4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CC4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CD4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CE4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CF4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CG4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CH4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CI4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CJ4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CK4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CL4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CM4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CN4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CO4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CP4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CQ4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CR4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CS4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CT4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CU4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CV4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CW4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CX4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CY4" s="8">
+        <v>9</v>
+      </c>
+      <c r="CZ4" s="8">
+        <v>9</v>
+      </c>
+      <c r="DA4" s="8">
+        <v>9</v>
+      </c>
+      <c r="DB4" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:106">
+      <c r="M6" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1 G1:W1 B2 D1:E2 I2:R2">
-    <cfRule type="expression" dxfId="9" priority="166">
+  <conditionalFormatting sqref="A1:B1 G1:W1 D1:E4 I2:R4 B2:C4">
+    <cfRule type="expression" dxfId="10" priority="167">
       <formula>IF(ISNA(A1),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:AC1">
-    <cfRule type="expression" dxfId="8" priority="165">
+    <cfRule type="expression" dxfId="9" priority="166">
       <formula>IF(ISNA(X1),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="7" priority="12">
+  <conditionalFormatting sqref="L2:L4">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>IF(L2="Elekta",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>IF(L2="Varian",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="N2:N4">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>IF(N2="Monaco",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>IF(N2="Xio",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>IF(N2="Pinnacle",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>IF(N2="Eclipse",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:Z2">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="S2:Z4">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>IF(ISNA(S2),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AD2">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="AA2:DB4">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>IF(ISNA(AA2),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(ISNA(M6),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/LocalProgram/upload/uploadingData.xlsx
+++ b/LocalProgram/upload/uploadingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenziping/Desktop/20200918AAB/AABKoala/LocalProgram/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B27A251-8DB1-EA44-8130-B83F6194DD99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CCCB0D-2D77-4846-90CC-65AADD919E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67920" yWindow="15300" windowWidth="38700" windowHeight="22460" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="35840" windowHeight="20600" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Andrew Alves</author>
+  </authors>
+  <commentList>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{39147E03-B549-B84D-AE03-0659C44ED793}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Andrew Alves:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+formal report not issued</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="199">
   <si>
     <t>Reading_101106</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,13 +423,339 @@
   </si>
   <si>
     <t>fac_10FFF</t>
+  </si>
+  <si>
+    <t>c6_p12_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p13_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p14_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p15_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p16_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p17_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p11_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p12_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p13_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p14_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p15_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p16_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p17_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p11_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p12_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p13_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p14_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p15_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p17_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p18_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p11_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p12_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p13_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p14_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p15_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p16_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p17_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p11_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p12_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p13_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p14_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p15_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p16_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p17_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p11_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p12_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p13_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p14_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p15_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p17_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p18_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aardvark</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Clem</t>
+  </si>
+  <si>
+    <t>TRFF7</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>RAV</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>c6_p11_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p11_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p12_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p13_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p14_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p15_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p16_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p17_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p11_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p12_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p13_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p14_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p15_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p16_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p17_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p11_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p12_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p13_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p14_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p15_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p17_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p18_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p11_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p12_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p13_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p14_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p15_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p16_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p17_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p11_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p12_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p13_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p14_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p15_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p16_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p17_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p11_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p12_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p13_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p14_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p15_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p17_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p18_10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,13 +778,45 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -456,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -464,11 +856,113 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -788,11 +1282,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0E457-5FC7-BA47-BE39-F879CFE5AF79}">
-  <dimension ref="A1:DB1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0E457-5FC7-BA47-BE39-F879CFE5AF79}">
+  <dimension ref="A1:GH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="EH1" workbookViewId="0">
+      <selection activeCell="ER1" sqref="ER1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -806,9 +1300,11 @@
     <col min="32" max="32" width="28.6640625" customWidth="1"/>
     <col min="33" max="33" width="32.33203125" customWidth="1"/>
     <col min="68" max="68" width="28.6640625" customWidth="1"/>
+    <col min="190" max="190" width="40.83203125" customWidth="1"/>
+    <col min="191" max="191" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" s="2" customFormat="1">
+    <row r="1" spans="1:190" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -1126,21 +1622,967 @@
       </c>
       <c r="DB1" t="s">
         <v>74</v>
+      </c>
+      <c r="DC1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="DV1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="DW1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="DX1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DY1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="EA1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="EB1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="EC1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="ED1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="EE1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="EG1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="EH1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="EI1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="EJ1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="EK1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="EL1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="EM1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="EN1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="EO1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EP1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="EQ1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="ER1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="ES1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="ET1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="EU1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="EV1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="EW1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="EX1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="EY1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="EZ1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="FA1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="FB1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="FC1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="FD1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="FE1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="FF1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="FG1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="FH1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="FI1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="FJ1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="FK1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FL1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FM1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FN1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FO1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="FP1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="FQ1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="FR1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="FS1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="FT1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="FU1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="FV1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="FW1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="FX1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="FY1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="FZ1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="GA1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="GB1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="GC1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="GD1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="GE1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="GF1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="GG1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="GH1" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:190">
+      <c r="B2" s="3">
+        <v>3001</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="6">
+        <v>40963</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S2" s="7">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U2" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V2" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W2" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X2" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="8">
+        <v>-3.1543391443251117E-3</v>
+      </c>
+      <c r="AF2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>6.0371586820287988E-3</v>
+      </c>
+      <c r="AH2" s="9">
+        <v>3.9750517405645711E-2</v>
+      </c>
+      <c r="AI2" s="9">
+        <v>5.1635985501662868E-3</v>
+      </c>
+      <c r="AJ2" s="9">
+        <v>-0.45805634681773166</v>
+      </c>
+      <c r="AK2" s="9">
+        <v>2.3452377767241458E-2</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>6.96269787557625E-2</v>
+      </c>
+      <c r="AM2" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN2" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO2" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP2" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BH2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BI2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BJ2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BK2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BL2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BM2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BN2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BO2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BP2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DD2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DE2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DF2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DG2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DH2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DI2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DJ2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DK2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DL2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DM2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DN2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DO2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DP2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DQ2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DR2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DS2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DT2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DU2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DV2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DW2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DX2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DY2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DZ2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EA2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EB2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EC2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ED2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EE2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EF2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EG2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EH2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EI2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EJ2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EK2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EL2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EM2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EN2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EO2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EP2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EQ2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ER2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ES2">
+        <v>0</v>
+      </c>
+      <c r="ET2">
+        <v>0</v>
+      </c>
+      <c r="EU2">
+        <v>0</v>
+      </c>
+      <c r="EV2">
+        <v>0</v>
+      </c>
+      <c r="EW2">
+        <v>0</v>
+      </c>
+      <c r="EX2">
+        <v>0</v>
+      </c>
+      <c r="EY2">
+        <v>0</v>
+      </c>
+      <c r="EZ2">
+        <v>0</v>
+      </c>
+      <c r="FA2">
+        <v>0</v>
+      </c>
+      <c r="FB2">
+        <v>0</v>
+      </c>
+      <c r="FC2">
+        <v>0</v>
+      </c>
+      <c r="FD2">
+        <v>0</v>
+      </c>
+      <c r="FE2">
+        <v>0</v>
+      </c>
+      <c r="FF2">
+        <v>0</v>
+      </c>
+      <c r="FG2">
+        <v>0</v>
+      </c>
+      <c r="FH2">
+        <v>0</v>
+      </c>
+      <c r="FI2">
+        <v>0</v>
+      </c>
+      <c r="FJ2">
+        <v>0</v>
+      </c>
+      <c r="FK2">
+        <v>0</v>
+      </c>
+      <c r="FL2">
+        <v>0</v>
+      </c>
+      <c r="FM2">
+        <v>0</v>
+      </c>
+      <c r="FN2">
+        <v>0</v>
+      </c>
+      <c r="FO2">
+        <v>0</v>
+      </c>
+      <c r="FP2">
+        <v>0</v>
+      </c>
+      <c r="FQ2">
+        <v>0</v>
+      </c>
+      <c r="FR2">
+        <v>0</v>
+      </c>
+      <c r="FS2">
+        <v>0</v>
+      </c>
+      <c r="FT2">
+        <v>0</v>
+      </c>
+      <c r="FU2">
+        <v>0</v>
+      </c>
+      <c r="FV2">
+        <v>0</v>
+      </c>
+      <c r="FW2">
+        <v>0</v>
+      </c>
+      <c r="FX2">
+        <v>0</v>
+      </c>
+      <c r="FY2">
+        <v>0</v>
+      </c>
+      <c r="FZ2">
+        <v>0</v>
+      </c>
+      <c r="GA2">
+        <v>0</v>
+      </c>
+      <c r="GB2">
+        <v>0</v>
+      </c>
+      <c r="GC2">
+        <v>0</v>
+      </c>
+      <c r="GD2">
+        <v>0</v>
+      </c>
+      <c r="GE2">
+        <v>0</v>
+      </c>
+      <c r="GF2">
+        <v>0</v>
+      </c>
+      <c r="GG2">
+        <v>0</v>
+      </c>
+      <c r="GH2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1 D1:E1 G1:W1">
-    <cfRule type="expression" dxfId="1" priority="53">
+    <cfRule type="expression" dxfId="16" priority="68">
       <formula>IF(ISNA(A1),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:AC1">
-    <cfRule type="expression" dxfId="0" priority="52">
+    <cfRule type="expression" dxfId="15" priority="67">
       <formula>IF(ISNA(X1),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E2">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>IF(ISNA(B2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:J2">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>IF(ISNA(F2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>IF(ISNA(K2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>IF(ISNA(M2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>IF(ISNA(N2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>IF(N2="Monaco",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>IF(N2="Xio",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>IF(N2="Pinnacle",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>IF(N2="Eclipse",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>IF(ISNA(O2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:Q2">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>IF(ISNA(P2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:X2">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>IF(ISNA(S2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:AD2">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF(ISNA(Y2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:BP2">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(ISNA(AE2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DC2:ER2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(ISNA(DC2),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/LocalProgram/upload/uploadingData.xlsx
+++ b/LocalProgram/upload/uploadingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenziping/Desktop/20200918AAB/AABKoala/LocalProgram/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CCCB0D-2D77-4846-90CC-65AADD919E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8909EF-08A8-AD4D-8A07-A67D1C09E435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="35840" windowHeight="20600" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
   </bookViews>
@@ -32,42 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Andrew Alves</author>
-  </authors>
-  <commentList>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{39147E03-B549-B84D-AE03-0659C44ED793}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Andrew Alves:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-formal report not issued</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Reading_101106</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -587,33 +553,6 @@
   <si>
     <t>c8_p18_10</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aardvark</t>
-  </si>
-  <si>
-    <t>Terry</t>
-  </si>
-  <si>
-    <t>Clem</t>
-  </si>
-  <si>
-    <t>TRFF7</t>
-  </si>
-  <si>
-    <t>Roland</t>
-  </si>
-  <si>
-    <t>RAV</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>Great</t>
-  </si>
-  <si>
-    <t>p</t>
   </si>
   <si>
     <t>c6_p11_6</t>
@@ -751,11 +690,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -778,45 +713,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -848,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,113 +759,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1282,11 +1083,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0E457-5FC7-BA47-BE39-F879CFE5AF79}">
-  <dimension ref="A1:GH2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0E457-5FC7-BA47-BE39-F879CFE5AF79}">
+  <dimension ref="A1:GH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EH1" workbookViewId="0">
-      <selection activeCell="ER1" sqref="ER1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1624,7 +1425,7 @@
         <v>74</v>
       </c>
       <c r="DC1" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="DD1" s="2" t="s">
         <v>106</v>
@@ -1750,839 +1551,145 @@
         <v>146</v>
       </c>
       <c r="ES1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="ET1" s="2" t="s">
+      <c r="FC1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="EU1" s="2" t="s">
+      <c r="FD1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="EV1" s="2" t="s">
+      <c r="FE1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="FF1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="EX1" s="2" t="s">
+      <c r="FG1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="FH1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="EZ1" s="2" t="s">
+      <c r="FI1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="FA1" s="2" t="s">
+      <c r="FJ1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="FB1" s="2" t="s">
+      <c r="FK1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="FC1" s="2" t="s">
+      <c r="FL1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FM1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="FN1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="FF1" s="2" t="s">
+      <c r="FO1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="FG1" s="2" t="s">
+      <c r="FP1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="FH1" s="2" t="s">
+      <c r="FQ1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="FI1" s="2" t="s">
+      <c r="FR1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="FJ1" s="2" t="s">
+      <c r="FS1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="FK1" s="2" t="s">
+      <c r="FT1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="FL1" s="2" t="s">
+      <c r="FU1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FV1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FW1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FX1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FY1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="GA1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="GB1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="GC1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="GD1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="GE1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="GF1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="GG1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="FY1" s="2" t="s">
+      <c r="GH1" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="FZ1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="GA1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="GB1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="GC1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="GD1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="GE1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="GF1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="GG1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="GH1" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:190">
-      <c r="B2" s="3">
-        <v>3001</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6">
-        <v>40963</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S2" s="7">
-        <v>1</v>
-      </c>
-      <c r="T2" s="7" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U2" s="7" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V2" s="7" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W2" s="7" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X2" s="7" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="8">
-        <v>-3.1543391443251117E-3</v>
-      </c>
-      <c r="AF2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG2" s="8">
-        <v>6.0371586820287988E-3</v>
-      </c>
-      <c r="AH2" s="9">
-        <v>3.9750517405645711E-2</v>
-      </c>
-      <c r="AI2" s="9">
-        <v>5.1635985501662868E-3</v>
-      </c>
-      <c r="AJ2" s="9">
-        <v>-0.45805634681773166</v>
-      </c>
-      <c r="AK2" s="9">
-        <v>2.3452377767241458E-2</v>
-      </c>
-      <c r="AL2" s="9">
-        <v>6.96269787557625E-2</v>
-      </c>
-      <c r="AM2" s="9" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN2" s="9" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO2" s="9" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AP2" s="9" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AR2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AS2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AT2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AU2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AV2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AW2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AX2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AY2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BA2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BB2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BC2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BD2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BE2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BF2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BG2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BH2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BI2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BK2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BL2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BM2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BN2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BO2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BP2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2">
-        <v>0</v>
-      </c>
-      <c r="BZ2">
-        <v>0</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CG2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="CZ2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DB2">
-        <v>0</v>
-      </c>
-      <c r="DC2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DD2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DE2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DF2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DG2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DH2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DI2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DJ2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DK2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DL2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DM2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DN2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DO2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DP2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DQ2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DR2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DS2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DT2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DU2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DV2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DW2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DX2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DY2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DZ2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EA2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EB2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EC2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="ED2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EE2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EF2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EG2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EH2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EI2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EJ2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EK2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EL2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EM2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EN2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EO2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EP2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EQ2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="ER2" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="ES2">
-        <v>0</v>
-      </c>
-      <c r="ET2">
-        <v>0</v>
-      </c>
-      <c r="EU2">
-        <v>0</v>
-      </c>
-      <c r="EV2">
-        <v>0</v>
-      </c>
-      <c r="EW2">
-        <v>0</v>
-      </c>
-      <c r="EX2">
-        <v>0</v>
-      </c>
-      <c r="EY2">
-        <v>0</v>
-      </c>
-      <c r="EZ2">
-        <v>0</v>
-      </c>
-      <c r="FA2">
-        <v>0</v>
-      </c>
-      <c r="FB2">
-        <v>0</v>
-      </c>
-      <c r="FC2">
-        <v>0</v>
-      </c>
-      <c r="FD2">
-        <v>0</v>
-      </c>
-      <c r="FE2">
-        <v>0</v>
-      </c>
-      <c r="FF2">
-        <v>0</v>
-      </c>
-      <c r="FG2">
-        <v>0</v>
-      </c>
-      <c r="FH2">
-        <v>0</v>
-      </c>
-      <c r="FI2">
-        <v>0</v>
-      </c>
-      <c r="FJ2">
-        <v>0</v>
-      </c>
-      <c r="FK2">
-        <v>0</v>
-      </c>
-      <c r="FL2">
-        <v>0</v>
-      </c>
-      <c r="FM2">
-        <v>0</v>
-      </c>
-      <c r="FN2">
-        <v>0</v>
-      </c>
-      <c r="FO2">
-        <v>0</v>
-      </c>
-      <c r="FP2">
-        <v>0</v>
-      </c>
-      <c r="FQ2">
-        <v>0</v>
-      </c>
-      <c r="FR2">
-        <v>0</v>
-      </c>
-      <c r="FS2">
-        <v>0</v>
-      </c>
-      <c r="FT2">
-        <v>0</v>
-      </c>
-      <c r="FU2">
-        <v>0</v>
-      </c>
-      <c r="FV2">
-        <v>0</v>
-      </c>
-      <c r="FW2">
-        <v>0</v>
-      </c>
-      <c r="FX2">
-        <v>0</v>
-      </c>
-      <c r="FY2">
-        <v>0</v>
-      </c>
-      <c r="FZ2">
-        <v>0</v>
-      </c>
-      <c r="GA2">
-        <v>0</v>
-      </c>
-      <c r="GB2">
-        <v>0</v>
-      </c>
-      <c r="GC2">
-        <v>0</v>
-      </c>
-      <c r="GD2">
-        <v>0</v>
-      </c>
-      <c r="GE2">
-        <v>0</v>
-      </c>
-      <c r="GF2">
-        <v>0</v>
-      </c>
-      <c r="GG2">
-        <v>0</v>
-      </c>
-      <c r="GH2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1 D1:E1 G1:W1">
-    <cfRule type="expression" dxfId="16" priority="68">
+    <cfRule type="expression" dxfId="1" priority="83">
       <formula>IF(ISNA(A1),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:AC1">
-    <cfRule type="expression" dxfId="15" priority="67">
+    <cfRule type="expression" dxfId="0" priority="82">
       <formula>IF(ISNA(X1),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E2">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>IF(ISNA(B2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:J2">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>IF(ISNA(F2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>IF(ISNA(K2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>IF(ISNA(M2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>IF(ISNA(N2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
-    <cfRule type="expression" dxfId="9" priority="7">
-      <formula>IF(N2="Monaco",TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>IF(N2="Xio",TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>IF(N2="Pinnacle",TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
-      <formula>IF(N2="Eclipse",TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>IF(ISNA(O2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:Q2">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>IF(ISNA(P2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:X2">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>IF(ISNA(S2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:AD2">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>IF(ISNA(Y2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:BP2">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF(ISNA(AE2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DC2:ER2">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(ISNA(DC2),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/LocalProgram/upload/uploadingData.xlsx
+++ b/LocalProgram/upload/uploadingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenziping/Desktop/20200918AAB/AABKoala/LocalProgram/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8909EF-08A8-AD4D-8A07-A67D1C09E435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DD9893-B188-B64C-971B-3185815558CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="35840" windowHeight="20600" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
+    <workbookView xWindow="4600" yWindow="3240" windowWidth="27440" windowHeight="16440" xr2:uid="{73A62333-CCB6-CA4C-8A8C-1227D78D8F69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,156 +35,249 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>AuditID</t>
+  </si>
+  <si>
+    <t>RevisionNumber</t>
+  </si>
+  <si>
+    <t>FacilityName</t>
+  </si>
+  <si>
+    <t>FacilityID</t>
+  </si>
+  <si>
+    <t>Auditor1</t>
+  </si>
+  <si>
+    <t>Auditor2</t>
+  </si>
+  <si>
+    <t>Auditor3</t>
+  </si>
+  <si>
+    <t>AuditDate</t>
+  </si>
+  <si>
+    <t>RepDate</t>
+  </si>
+  <si>
+    <t>LinacModel</t>
+  </si>
+  <si>
+    <t>LinacManufacturer</t>
+  </si>
+  <si>
+    <t>PlanningSystemManufacturer</t>
+  </si>
+  <si>
+    <t>tps</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>kqFac</t>
+  </si>
+  <si>
+    <t>ACDS</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>fac_6</t>
+  </si>
+  <si>
+    <t>fac_10</t>
+  </si>
+  <si>
+    <t>fac_15</t>
+  </si>
+  <si>
+    <t>fac_18</t>
+  </si>
+  <si>
+    <t>fac_6FFF</t>
+  </si>
+  <si>
+    <t>fac_10FFF</t>
+  </si>
+  <si>
+    <t>TPR_6</t>
+  </si>
+  <si>
+    <t>TPR_10</t>
+  </si>
+  <si>
+    <t>TPR_15</t>
+  </si>
+  <si>
+    <t>TPR_18</t>
+  </si>
+  <si>
+    <t>TPR_6FFF</t>
+  </si>
+  <si>
+    <t>TPR_10FFF</t>
+  </si>
+  <si>
     <t>Reading_101106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_110106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_205106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_208106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_205206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_208206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_205306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_208306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_303106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_305106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_403106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_405106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_103110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_110110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_303110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_305110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_403110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_405110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_103115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_110115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_303115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_305115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_403115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_405115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_103118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_110118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_303118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_305118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_403118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_405118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_101105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_110105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_303105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_305105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_103109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_110109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_303109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reading_305109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Misdelivery_101106</t>
   </si>
   <si>
     <t>Misdelivery_110106</t>
@@ -298,269 +391,176 @@
     <t>Misdelivery_305109</t>
   </si>
   <si>
-    <t>Misdelivery_101106</t>
-  </si>
-  <si>
-    <t>TPR_6</t>
-  </si>
-  <si>
-    <t>TPR_10</t>
-  </si>
-  <si>
-    <t>TPR_15</t>
-  </si>
-  <si>
-    <t>TPR_18</t>
-  </si>
-  <si>
-    <t>TPR_6FFF</t>
-  </si>
-  <si>
-    <t>TPR_10FFF</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>AuditID</t>
-  </si>
-  <si>
-    <t>RevisionNumber</t>
-  </si>
-  <si>
-    <t>FacilityName</t>
-  </si>
-  <si>
-    <t>FacilityID</t>
-  </si>
-  <si>
-    <t>Auditor1</t>
-  </si>
-  <si>
-    <t>Auditor2</t>
-  </si>
-  <si>
-    <t>Auditor3</t>
-  </si>
-  <si>
-    <t>AuditDate</t>
-  </si>
-  <si>
-    <t>RepDate</t>
-  </si>
-  <si>
-    <t>LinacModel</t>
-  </si>
-  <si>
-    <t>LinacManufacturer</t>
-  </si>
-  <si>
-    <t>PlanningSystemManufacturer</t>
-  </si>
-  <si>
-    <t>tps</t>
-  </si>
-  <si>
-    <t>Algorithm</t>
-  </si>
-  <si>
-    <t>kqFac</t>
-  </si>
-  <si>
-    <t>ACDS</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>fac_6</t>
-  </si>
-  <si>
-    <t>fac_10</t>
-  </si>
-  <si>
-    <t>fac_15</t>
-  </si>
-  <si>
-    <t>fac_18</t>
-  </si>
-  <si>
-    <t>fac_6FFF</t>
-  </si>
-  <si>
-    <t>fac_10FFF</t>
+    <t>c6_p11_6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c6_p12_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c6_p13_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c6_p14_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c6_p15_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c6_p16_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c6_p17_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c7_p11_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c7_p12_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c7_p13_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c7_p14_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c7_p15_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c7_p16_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c7_p17_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c8_p11_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c8_p12_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c8_p13_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c8_p14_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c8_p15_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c8_p17_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c8_p18_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c6_p11_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c6_p12_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c6_p13_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c6_p14_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c6_p15_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c6_p16_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c6_p17_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c7_p11_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c7_p12_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c7_p13_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c7_p14_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c7_p15_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c7_p16_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c7_p17_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c8_p11_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c8_p12_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c8_p13_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c8_p14_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c8_p15_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c8_p17_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c8_p18_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p11_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>imrt_misdelivery_c6_p11_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>imrt_misdelivery_c6_p12_6</t>
@@ -700,18 +700,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -755,7 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1083,472 +1083,459 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0E457-5FC7-BA47-BE39-F879CFE5AF79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79CB4E9-1D64-AC4E-8AE1-99DCAA607CA3}">
   <dimension ref="A1:GH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="31" max="31" width="39.83203125" customWidth="1"/>
-    <col min="32" max="32" width="28.6640625" customWidth="1"/>
-    <col min="33" max="33" width="32.33203125" customWidth="1"/>
-    <col min="68" max="68" width="28.6640625" customWidth="1"/>
-    <col min="190" max="190" width="40.83203125" customWidth="1"/>
-    <col min="191" max="191" width="37.5" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:190" s="2" customFormat="1">
+    <row r="1" spans="1:190">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="CF1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="CG1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="CH1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="CI1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="CJ1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="CK1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="CL1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="CM1" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="CN1" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="CO1" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="CP1" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="CQ1" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="CR1" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="CS1" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="CT1" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="CU1" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="CV1" t="s">
         <v>99</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="CW1" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="CX1" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="CY1" t="s">
         <v>102</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="CZ1" t="s">
         <v>103</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="DA1" t="s">
         <v>104</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="DB1" t="s">
         <v>105</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>46</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>48</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>51</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>53</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>54</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>57</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>58</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>59</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>61</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>63</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>64</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>65</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>66</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>69</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>72</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>73</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>74</v>
-      </c>
       <c r="DC1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="DD1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="ES1" s="2" t="s">
         <v>148</v>
@@ -1678,18 +1665,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1 D1:E1 G1:W1">
-    <cfRule type="expression" dxfId="1" priority="83">
+    <cfRule type="expression" dxfId="1" priority="311">
       <formula>IF(ISNA(A1),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:AC1">
-    <cfRule type="expression" dxfId="0" priority="82">
+    <cfRule type="expression" dxfId="0" priority="310">
       <formula>IF(ISNA(X1),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/LocalProgram/upload/uploadingData.xlsx
+++ b/LocalProgram/upload/uploadingData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenziping/Desktop/20200918AAB/AABKoala/LocalProgram/upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwan\Desktop\SD\LocalProgram\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8909EF-08A8-AD4D-8A07-A67D1C09E435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0F461F-C5F3-47EA-B8D8-516B726A9CE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="35840" windowHeight="20600" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="211">
   <si>
     <t>Reading_101106</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,366 +331,452 @@
     <t>FacilityName</t>
   </si>
   <si>
+    <t>Auditor1</t>
+  </si>
+  <si>
+    <t>Auditor2</t>
+  </si>
+  <si>
+    <t>Auditor3</t>
+  </si>
+  <si>
+    <t>AuditDate</t>
+  </si>
+  <si>
+    <t>LinacManufacturer</t>
+  </si>
+  <si>
+    <t>tps</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>fac_10</t>
+  </si>
+  <si>
+    <t>fac_15</t>
+  </si>
+  <si>
+    <t>fac_18</t>
+  </si>
+  <si>
+    <t>fac_6FFF</t>
+  </si>
+  <si>
+    <t>fac_10FFF</t>
+  </si>
+  <si>
+    <t>c6_p12_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p13_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p14_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p15_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p16_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p17_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p11_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p12_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p13_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p14_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p15_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p16_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p17_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p11_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p12_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p13_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p14_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p15_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p17_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p18_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p11_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p12_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p13_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p14_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p15_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p16_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p17_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p11_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p12_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p13_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p14_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p15_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p16_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7_p17_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p11_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p12_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p13_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p14_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p15_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p17_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8_p18_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6_p11_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p11_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p12_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p13_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p14_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p15_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p16_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p17_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p11_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p12_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p13_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p14_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p15_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p16_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p17_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p11_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p12_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p13_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p14_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p15_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p17_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p18_6</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p11_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p12_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p13_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p14_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p15_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p16_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c6_p17_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p11_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p12_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p13_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p14_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p15_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p16_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c7_p17_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p11_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p12_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p13_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p14_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p15_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p17_10</t>
+  </si>
+  <si>
+    <t>imrt_misdelivery_c8_p18_10</t>
+  </si>
+  <si>
+    <t>NZ01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>African Palm Civet</t>
+  </si>
+  <si>
+    <t>African Penguin</t>
+  </si>
+  <si>
+    <t>FAC-028</t>
+  </si>
+  <si>
+    <t>FAC-029</t>
+  </si>
+  <si>
+    <t>Velvet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q4 2020</t>
+  </si>
+  <si>
+    <t>Q4 2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinacModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Lost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phantom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kqFac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fac_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FacilityID</t>
-  </si>
-  <si>
-    <t>Auditor1</t>
-  </si>
-  <si>
-    <t>Auditor2</t>
-  </si>
-  <si>
-    <t>Auditor3</t>
-  </si>
-  <si>
-    <t>AuditDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RepDate</t>
-  </si>
-  <si>
-    <t>LinacModel</t>
-  </si>
-  <si>
-    <t>LinacManufacturer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PlanningSystemManufacturer</t>
-  </si>
-  <si>
-    <t>tps</t>
-  </si>
-  <si>
-    <t>Algorithm</t>
-  </si>
-  <si>
-    <t>kqFac</t>
-  </si>
-  <si>
-    <t>ACDS</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>fac_6</t>
-  </si>
-  <si>
-    <t>fac_10</t>
-  </si>
-  <si>
-    <t>fac_15</t>
-  </si>
-  <si>
-    <t>fac_18</t>
-  </si>
-  <si>
-    <t>fac_6FFF</t>
-  </si>
-  <si>
-    <t>fac_10FFF</t>
-  </si>
-  <si>
-    <t>c6_p12_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p13_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p14_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p15_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p16_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p17_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p11_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p12_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p13_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p14_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p15_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p16_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p17_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p11_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p12_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p13_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p14_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p15_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p17_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p18_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p11_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p12_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p13_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p14_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p15_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p16_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p17_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p11_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p12_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p13_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p14_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p15_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p16_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p17_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p11_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p12_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p13_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p14_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p15_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p17_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p18_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p11_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c6_p11_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c6_p12_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c6_p13_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c6_p14_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c6_p15_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c6_p16_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c6_p17_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c7_p11_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c7_p12_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c7_p13_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c7_p14_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c7_p15_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c7_p16_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c7_p17_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c8_p11_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c8_p12_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c8_p13_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c8_p14_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c8_p15_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c8_p17_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c8_p18_6</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c6_p11_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c6_p12_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c6_p13_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c6_p14_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c6_p15_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c6_p16_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c6_p17_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c7_p11_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c7_p12_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c7_p13_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c7_p14_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c7_p15_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c7_p16_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c7_p17_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c8_p11_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c8_p12_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c8_p13_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c8_p14_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c8_p15_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c8_p17_10</t>
-  </si>
-  <si>
-    <t>imrt_misdelivery_c8_p18_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -713,13 +799,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -751,7 +850,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,11 +858,26 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1084,25 +1198,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0E457-5FC7-BA47-BE39-F879CFE5AF79}">
-  <dimension ref="A1:GH1"/>
+  <dimension ref="A1:GH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="GB1" workbookViewId="0">
+      <selection activeCell="GH11" sqref="GH11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.80859375" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="31" max="31" width="39.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.80859375" customWidth="1"/>
+    <col min="12" max="12" width="14.234375" customWidth="1"/>
+    <col min="31" max="31" width="39.80859375" customWidth="1"/>
     <col min="32" max="32" width="28.6640625" customWidth="1"/>
     <col min="33" max="33" width="32.33203125" customWidth="1"/>
     <col min="68" max="68" width="28.6640625" customWidth="1"/>
-    <col min="190" max="190" width="40.83203125" customWidth="1"/>
-    <col min="191" max="191" width="37.5" customWidth="1"/>
+    <col min="190" max="190" width="40.80859375" customWidth="1"/>
+    <col min="191" max="191" width="37.47265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:190" s="2" customFormat="1">
@@ -1119,64 +1233,64 @@
         <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>76</v>
@@ -1425,271 +1539,383 @@
         <v>74</v>
       </c>
       <c r="DC1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DN1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DS1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="DT1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="DU1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="DV1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="DW1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="DX1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="DY1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="EA1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="EB1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="EC1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="ED1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="EE1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="EF1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="EG1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="EH1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="EI1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="EJ1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="EK1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="EL1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="EM1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="EN1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="EO1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="EP1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="EQ1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="ER1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="ES1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="ET1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="EU1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="EV1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EW1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="EX1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="EY1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="EZ1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="DD1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="2" t="s">
+      <c r="FA1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="2" t="s">
+      <c r="FB1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="2" t="s">
+      <c r="FC1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="2" t="s">
+      <c r="FD1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="FE1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="2" t="s">
+      <c r="FF1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="FG1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="2" t="s">
+      <c r="FH1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="2" t="s">
+      <c r="FI1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="2" t="s">
+      <c r="FJ1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="2" t="s">
+      <c r="FK1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FL1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="FM1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="2" t="s">
+      <c r="FN1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="2" t="s">
+      <c r="FO1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="2" t="s">
+      <c r="FP1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="2" t="s">
+      <c r="FQ1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" s="2" t="s">
+      <c r="FR1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" s="2" t="s">
+      <c r="FS1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" s="2" t="s">
+      <c r="FT1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FU1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FV1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FW1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FX1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="FY1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="GA1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="GB1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="GC1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="GD1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="GE1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="GF1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="FY1" s="2" t="s">
+      <c r="GG1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="GH1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="GA1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:190">
+      <c r="B2">
+        <v>1111</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1111</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44076</v>
+      </c>
+      <c r="J2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O2" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX2" s="5">
+        <v>-6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:190">
+      <c r="B3" t="s">
         <v>182</v>
       </c>
-      <c r="GB1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC1" s="2" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="GD1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="GE1" s="2" t="s">
+      <c r="E3" t="s">
         <v>186</v>
       </c>
-      <c r="GF1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="GG1" s="2" t="s">
+      <c r="F3" t="s">
         <v>188</v>
       </c>
-      <c r="GH1" s="2" t="s">
+      <c r="I3" s="4">
+        <v>44077</v>
+      </c>
+      <c r="K3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M3" t="s">
+        <v>198</v>
+      </c>
+      <c r="O3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:190">
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" t="s">
         <v>189</v>
+      </c>
+      <c r="I4" s="4">
+        <v>44078</v>
+      </c>
+      <c r="J4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L4">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>199</v>
+      </c>
+      <c r="O4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1 D1:E1 G1:W1">
-    <cfRule type="expression" dxfId="1" priority="83">
+    <cfRule type="expression" dxfId="2" priority="84">
       <formula>IF(ISNA(A1),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:AC1">
-    <cfRule type="expression" dxfId="0" priority="82">
+    <cfRule type="expression" dxfId="1" priority="83">
       <formula>IF(ISNA(X1),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(ISNA(D2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LocalProgram/upload/uploadingData.xlsx
+++ b/LocalProgram/upload/uploadingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwan\Desktop\SD\LocalProgram\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0F461F-C5F3-47EA-B8D8-516B726A9CE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E0A5C2-C921-4CFC-9801-736B3BE3622B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
+    <workbookView xWindow="1254" yWindow="3162" windowWidth="16062" windowHeight="8802" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>Reading_101106</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -662,38 +662,17 @@
     <t>imrt_misdelivery_c8_p18_10</t>
   </si>
   <si>
-    <t>NZ01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>African Palm Civet</t>
   </si>
   <si>
-    <t>African Penguin</t>
-  </si>
-  <si>
     <t>FAC-028</t>
   </si>
   <si>
-    <t>FAC-029</t>
-  </si>
-  <si>
     <t>Velvet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eric</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Q4 2020</t>
-  </si>
-  <si>
-    <t>Q4 2020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -701,10 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Roland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Korg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -713,63 +688,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RAV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Small</t>
   </si>
   <si>
-    <t>Lost</t>
+    <t>Phantom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kqFac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fac_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacilityID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlanningSystemManufacturer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phantom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kqFac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fac_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FacilityID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlanningSystemManufacturer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1198,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0E457-5FC7-BA47-BE39-F879CFE5AF79}">
-  <dimension ref="A1:GH4"/>
+  <dimension ref="A1:GH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GB1" workbookViewId="0">
-      <selection activeCell="GH11" sqref="GH11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
@@ -1233,7 +1194,7 @@
         <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>86</v>
@@ -1248,16 +1209,16 @@
         <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>91</v>
@@ -1266,16 +1227,16 @@
         <v>92</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>93</v>
@@ -1799,103 +1760,160 @@
         <v>1111</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
         <v>183</v>
       </c>
-      <c r="E2" t="s">
-        <v>185</v>
-      </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I2" s="4">
         <v>44076</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="M2" t="s">
-        <v>197</v>
+        <v>189</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="O2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>200</v>
       </c>
       <c r="Q2" t="s">
-        <v>205</v>
+        <v>193</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1.008</v>
       </c>
       <c r="AX2" s="5">
         <v>-6.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:190">
-      <c r="B3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" t="s">
-        <v>188</v>
-      </c>
-      <c r="I3" s="4">
-        <v>44077</v>
-      </c>
-      <c r="K3" t="s">
-        <v>193</v>
-      </c>
-      <c r="L3" t="s">
-        <v>196</v>
-      </c>
-      <c r="M3" t="s">
-        <v>198</v>
-      </c>
-      <c r="O3" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:190">
-      <c r="B4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I4" s="4">
-        <v>44078</v>
-      </c>
-      <c r="J4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K4" t="s">
-        <v>193</v>
-      </c>
-      <c r="L4">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
-        <v>199</v>
-      </c>
-      <c r="O4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>205</v>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1910,7 +1928,7 @@
       <formula>IF(ISNA(X1),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D4">
+  <conditionalFormatting sqref="D2">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(ISNA(D2),TRUE,FALSE)</formula>
     </cfRule>

--- a/LocalProgram/upload/uploadingData.xlsx
+++ b/LocalProgram/upload/uploadingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwan\Desktop\SD\LocalProgram\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E0A5C2-C921-4CFC-9801-736B3BE3622B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCCB7CA-FD9D-444D-B164-E87031CF396C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1254" yWindow="3162" windowWidth="16062" windowHeight="8802" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
+    <workbookView xWindow="2772" yWindow="1398" windowWidth="16062" windowHeight="8802" xr2:uid="{58DCBAB4-1D87-6D4D-AB10-ABBF03993274}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -665,17 +665,10 @@
     <t>African Palm Civet</t>
   </si>
   <si>
-    <t>FAC-028</t>
-  </si>
-  <si>
     <t>Velvet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q4 2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LinacModel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -727,10 +720,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sun</t>
-  </si>
-  <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>FAC-029</t>
+  </si>
+  <si>
+    <t>Q4 2021</t>
+  </si>
+  <si>
+    <t>Mon</t>
   </si>
 </sst>
 </file>
@@ -833,12 +832,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1162,7 +1156,7 @@
   <dimension ref="A1:GH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
@@ -1194,7 +1188,7 @@
         <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>86</v>
@@ -1209,16 +1203,16 @@
         <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>91</v>
@@ -1227,16 +1221,16 @@
         <v>92</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>93</v>
@@ -1753,8 +1747,11 @@
       </c>
     </row>
     <row r="2" spans="1:190">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
-        <v>1111</v>
+        <v>1284</v>
       </c>
       <c r="C2" s="6">
         <v>1111</v>
@@ -1763,37 +1760,37 @@
         <v>182</v>
       </c>
       <c r="E2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" t="s">
         <v>183</v>
       </c>
-      <c r="F2" t="s">
-        <v>184</v>
-      </c>
       <c r="I2" s="4">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="J2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K2" t="s">
         <v>185</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M2" t="s">
         <v>187</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O2" t="s">
         <v>188</v>
       </c>
-      <c r="M2" t="s">
-        <v>189</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O2" t="s">
-        <v>190</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S2" s="5">
         <v>1.008</v>
@@ -1918,19 +1915,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1 D1:E1 G1:W1">
-    <cfRule type="expression" dxfId="2" priority="84">
+  <conditionalFormatting sqref="A1:B1 D1:E1 G1:W1 D2">
+    <cfRule type="expression" dxfId="1" priority="84">
       <formula>IF(ISNA(A1),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:AC1">
-    <cfRule type="expression" dxfId="1" priority="83">
+    <cfRule type="expression" dxfId="0" priority="83">
       <formula>IF(ISNA(X1),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(ISNA(D2),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LocalProgram/upload/uploadingData.xlsx
+++ b/LocalProgram/upload/uploadingData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenziping/Desktop/20200918AAB/AABKoala/LocalProgram/upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwan\Desktop\SD\LocalProgram\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DD9893-B188-B64C-971B-3185815558CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAA9C7E-D037-4E29-AEC3-56E68C30F688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="3240" windowWidth="27440" windowHeight="16440" xr2:uid="{73A62333-CCB6-CA4C-8A8C-1227D78D8F69}"/>
+    <workbookView xWindow="2916" yWindow="1344" windowWidth="16062" windowHeight="8802" xr2:uid="{73A62333-CCB6-CA4C-8A8C-1227D78D8F69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,114 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Andrew Alves</author>
+  </authors>
+  <commentList>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{30FABAAF-08D2-4714-9A00-B4C5D4CB6600}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Andrew Alves:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+formal report not issued</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{02A02DDC-0302-4C4F-B036-44BDB8B2E952}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Andrew Alves:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+formal report not issued</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{D307DCB2-36AD-4B88-945A-A43E4E7541C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Andrew Alves:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+formal report not issued</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{A2475873-D886-41A4-9A82-CC5CEA4DF03A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Andrew Alves:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+formal report not issued</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="223">
   <si>
     <t>id</t>
   </si>
@@ -684,13 +790,118 @@
   </si>
   <si>
     <t>imrt_misdelivery_c8_p18_10</t>
+  </si>
+  <si>
+    <t>Aardvark</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Clem</t>
+  </si>
+  <si>
+    <t>TRFF7</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>RAV</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Abyssinian</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>72EER</t>
+  </si>
+  <si>
+    <t>IHP</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Adelie Penguin</t>
+  </si>
+  <si>
+    <t>Daisy</t>
+  </si>
+  <si>
+    <t>GD004</t>
+  </si>
+  <si>
+    <t>Yamaha</t>
+  </si>
+  <si>
+    <t>LEK</t>
+  </si>
+  <si>
+    <t>Sea</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Affenpinscher</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>KOP12</t>
+  </si>
+  <si>
+    <t>Korg</t>
+  </si>
+  <si>
+    <t>Afghan Hound</t>
+  </si>
+  <si>
+    <t>FAC-057</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Q3 2012</t>
+  </si>
+  <si>
+    <t>JST57</t>
+  </si>
+  <si>
+    <t>Tiny</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0.00000000000"/>
+    <numFmt numFmtId="179" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -713,13 +924,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -751,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,11 +1002,133 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1083,14 +1448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79CB4E9-1D64-AC4E-8AE1-99DCAA607CA3}">
-  <dimension ref="A1:GH1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79CB4E9-1D64-AC4E-8AE1-99DCAA607CA3}">
+  <dimension ref="A1:GH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:190">
       <c r="A1" s="1" t="s">
@@ -1662,20 +2027,3225 @@
       </c>
       <c r="GH1" s="2" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:190">
+      <c r="B2" s="3">
+        <v>300</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="6">
+        <v>40963</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="7">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U2" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V2" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W2" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X2" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="8">
+        <v>-3.1543391443251117E-3</v>
+      </c>
+      <c r="AF2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>6.0371586820287988E-3</v>
+      </c>
+      <c r="AH2" s="9">
+        <v>3.9750517405645711E-2</v>
+      </c>
+      <c r="AI2" s="9">
+        <v>5.1635985501662868E-3</v>
+      </c>
+      <c r="AJ2" s="9">
+        <v>-0.45805634681773166</v>
+      </c>
+      <c r="AK2" s="9">
+        <v>2.3452377767241458E-2</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>6.96269787557625E-2</v>
+      </c>
+      <c r="AM2" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN2" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO2" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP2" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BH2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BI2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BJ2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BK2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BL2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BM2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BN2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BO2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BP2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DD2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DE2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DF2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DG2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DH2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DI2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DJ2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DK2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DL2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DM2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DN2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DO2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DP2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DQ2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DR2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DS2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DT2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DU2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DV2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DW2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DX2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DY2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DZ2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EA2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EB2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EC2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ED2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EE2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EF2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EG2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EH2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EI2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EJ2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EK2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EL2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EM2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EN2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EO2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EP2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EQ2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ER2" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ES2">
+        <v>0</v>
+      </c>
+      <c r="ET2">
+        <v>0</v>
+      </c>
+      <c r="EU2">
+        <v>0</v>
+      </c>
+      <c r="EV2">
+        <v>0</v>
+      </c>
+      <c r="EW2">
+        <v>0</v>
+      </c>
+      <c r="EX2">
+        <v>0</v>
+      </c>
+      <c r="EY2">
+        <v>0</v>
+      </c>
+      <c r="EZ2">
+        <v>0</v>
+      </c>
+      <c r="FA2">
+        <v>0</v>
+      </c>
+      <c r="FB2">
+        <v>0</v>
+      </c>
+      <c r="FC2">
+        <v>0</v>
+      </c>
+      <c r="FD2">
+        <v>0</v>
+      </c>
+      <c r="FE2">
+        <v>0</v>
+      </c>
+      <c r="FF2">
+        <v>0</v>
+      </c>
+      <c r="FG2">
+        <v>0</v>
+      </c>
+      <c r="FH2">
+        <v>0</v>
+      </c>
+      <c r="FI2">
+        <v>0</v>
+      </c>
+      <c r="FJ2">
+        <v>0</v>
+      </c>
+      <c r="FK2">
+        <v>0</v>
+      </c>
+      <c r="FL2">
+        <v>0</v>
+      </c>
+      <c r="FM2">
+        <v>0</v>
+      </c>
+      <c r="FN2">
+        <v>0</v>
+      </c>
+      <c r="FO2">
+        <v>0</v>
+      </c>
+      <c r="FP2">
+        <v>0</v>
+      </c>
+      <c r="FQ2">
+        <v>0</v>
+      </c>
+      <c r="FR2">
+        <v>0</v>
+      </c>
+      <c r="FS2">
+        <v>0</v>
+      </c>
+      <c r="FT2">
+        <v>0</v>
+      </c>
+      <c r="FU2">
+        <v>0</v>
+      </c>
+      <c r="FV2">
+        <v>0</v>
+      </c>
+      <c r="FW2">
+        <v>0</v>
+      </c>
+      <c r="FX2">
+        <v>0</v>
+      </c>
+      <c r="FY2">
+        <v>0</v>
+      </c>
+      <c r="FZ2">
+        <v>0</v>
+      </c>
+      <c r="GA2">
+        <v>0</v>
+      </c>
+      <c r="GB2">
+        <v>0</v>
+      </c>
+      <c r="GC2">
+        <v>0</v>
+      </c>
+      <c r="GD2">
+        <v>0</v>
+      </c>
+      <c r="GE2">
+        <v>0</v>
+      </c>
+      <c r="GF2">
+        <v>0</v>
+      </c>
+      <c r="GG2">
+        <v>0</v>
+      </c>
+      <c r="GH2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:190">
+      <c r="B3" s="3">
+        <v>3002</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="6">
+        <v>41010</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="7">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U3" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V3" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W3" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X3" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="8">
+        <v>-1.4459527211798034E-2</v>
+      </c>
+      <c r="AF3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>-3.1745303998212807E-2</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>-2.3847092006991859E-2</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>-2.026143806089694E-2</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>-0.17896160861556185</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>-2.8141562707745156E-2</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>-1.1116329472477511E-2</v>
+      </c>
+      <c r="AM3" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN3" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO3" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP3" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BH3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BI3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BJ3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BK3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BL3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BM3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BN3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BO3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BP3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DD3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DE3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DF3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DG3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DH3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DI3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DJ3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DK3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DL3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DM3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DN3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DO3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DP3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DQ3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DR3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DS3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DT3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DU3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DV3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DW3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DX3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DY3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DZ3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EA3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EB3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EC3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ED3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EE3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EF3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EG3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EH3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EI3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EJ3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EK3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EL3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EM3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EN3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EO3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EP3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EQ3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ER3" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ES3">
+        <v>0</v>
+      </c>
+      <c r="ET3">
+        <v>0</v>
+      </c>
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EV3">
+        <v>0</v>
+      </c>
+      <c r="EW3">
+        <v>0</v>
+      </c>
+      <c r="EX3">
+        <v>0</v>
+      </c>
+      <c r="EY3">
+        <v>0</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>0</v>
+      </c>
+      <c r="FB3">
+        <v>0</v>
+      </c>
+      <c r="FC3">
+        <v>0</v>
+      </c>
+      <c r="FD3">
+        <v>0</v>
+      </c>
+      <c r="FE3">
+        <v>0</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3">
+        <v>0</v>
+      </c>
+      <c r="FH3">
+        <v>0</v>
+      </c>
+      <c r="FI3">
+        <v>0</v>
+      </c>
+      <c r="FJ3">
+        <v>0</v>
+      </c>
+      <c r="FK3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>0</v>
+      </c>
+      <c r="FN3">
+        <v>0</v>
+      </c>
+      <c r="FO3">
+        <v>0</v>
+      </c>
+      <c r="FP3">
+        <v>0</v>
+      </c>
+      <c r="FQ3">
+        <v>0</v>
+      </c>
+      <c r="FR3">
+        <v>0</v>
+      </c>
+      <c r="FS3">
+        <v>0</v>
+      </c>
+      <c r="FT3">
+        <v>0</v>
+      </c>
+      <c r="FU3">
+        <v>0</v>
+      </c>
+      <c r="FV3">
+        <v>0</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>0</v>
+      </c>
+      <c r="FY3">
+        <v>0</v>
+      </c>
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>0</v>
+      </c>
+      <c r="GB3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0</v>
+      </c>
+      <c r="GD3">
+        <v>0</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:190">
+      <c r="B4" s="3">
+        <v>3003</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="6">
+        <v>41012</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="10">
+        <v>1.008</v>
+      </c>
+      <c r="T4" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U4" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V4" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W4" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X4" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="8">
+        <v>7.9342558416164513E-3</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>1.5612232812689086E-2</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>-1.6476274612324451E-2</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>2.0220549028425221E-2</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>8.5364279750078931E-3</v>
+      </c>
+      <c r="AJ4" s="9">
+        <v>-0.22288064259315962</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>-5.6218555824393418E-3</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>3.3364078934942282E-2</v>
+      </c>
+      <c r="AM4" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN4" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO4" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP4" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BH4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BI4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BJ4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BK4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BL4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BM4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BN4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BO4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BP4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DD4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DE4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DF4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DG4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DH4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DI4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DJ4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DK4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DL4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DM4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DN4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DO4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DP4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DQ4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DR4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DS4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DT4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DU4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DV4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DW4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DX4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DY4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DZ4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EA4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EB4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EC4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ED4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EE4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EF4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EG4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EH4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EI4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EJ4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EK4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EL4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EM4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EN4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EO4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EP4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EQ4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ER4" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ES4">
+        <v>0</v>
+      </c>
+      <c r="ET4">
+        <v>0</v>
+      </c>
+      <c r="EU4">
+        <v>0</v>
+      </c>
+      <c r="EV4">
+        <v>0</v>
+      </c>
+      <c r="EW4">
+        <v>0</v>
+      </c>
+      <c r="EX4">
+        <v>0</v>
+      </c>
+      <c r="EY4">
+        <v>0</v>
+      </c>
+      <c r="EZ4">
+        <v>0</v>
+      </c>
+      <c r="FA4">
+        <v>0</v>
+      </c>
+      <c r="FB4">
+        <v>0</v>
+      </c>
+      <c r="FC4">
+        <v>0</v>
+      </c>
+      <c r="FD4">
+        <v>0</v>
+      </c>
+      <c r="FE4">
+        <v>0</v>
+      </c>
+      <c r="FF4">
+        <v>0</v>
+      </c>
+      <c r="FG4">
+        <v>0</v>
+      </c>
+      <c r="FH4">
+        <v>0</v>
+      </c>
+      <c r="FI4">
+        <v>0</v>
+      </c>
+      <c r="FJ4">
+        <v>0</v>
+      </c>
+      <c r="FK4">
+        <v>0</v>
+      </c>
+      <c r="FL4">
+        <v>0</v>
+      </c>
+      <c r="FM4">
+        <v>0</v>
+      </c>
+      <c r="FN4">
+        <v>0</v>
+      </c>
+      <c r="FO4">
+        <v>0</v>
+      </c>
+      <c r="FP4">
+        <v>0</v>
+      </c>
+      <c r="FQ4">
+        <v>0</v>
+      </c>
+      <c r="FR4">
+        <v>0</v>
+      </c>
+      <c r="FS4">
+        <v>0</v>
+      </c>
+      <c r="FT4">
+        <v>0</v>
+      </c>
+      <c r="FU4">
+        <v>0</v>
+      </c>
+      <c r="FV4">
+        <v>0</v>
+      </c>
+      <c r="FW4">
+        <v>0</v>
+      </c>
+      <c r="FX4">
+        <v>0</v>
+      </c>
+      <c r="FY4">
+        <v>0</v>
+      </c>
+      <c r="FZ4">
+        <v>0</v>
+      </c>
+      <c r="GA4">
+        <v>0</v>
+      </c>
+      <c r="GB4">
+        <v>0</v>
+      </c>
+      <c r="GC4">
+        <v>0</v>
+      </c>
+      <c r="GD4">
+        <v>0</v>
+      </c>
+      <c r="GE4">
+        <v>0</v>
+      </c>
+      <c r="GF4">
+        <v>0</v>
+      </c>
+      <c r="GG4">
+        <v>0</v>
+      </c>
+      <c r="GH4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:190">
+      <c r="B5" s="3">
+        <v>3004</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="6">
+        <v>41029</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="7">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="T5" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U5" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V5" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W5" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X5" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="8">
+        <v>-2.3244318456030175E-2</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>-6.5235782923345198E-3</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>-2.8813955622058081E-2</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>5.6213801501971555E-3</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>-2.0446223792192037E-2</v>
+      </c>
+      <c r="AJ5" s="9">
+        <v>4.4964641170271477E-2</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>-3.1542980495699565E-3</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>-2.5223721103097861E-2</v>
+      </c>
+      <c r="AM5" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN5" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO5" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP5" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BH5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BI5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BJ5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BK5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BL5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BM5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BN5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BO5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BP5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DD5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DE5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DF5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DG5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DH5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DI5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DJ5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DK5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DL5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DM5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DN5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DO5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DP5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DQ5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DR5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DS5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DT5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DU5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DV5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DW5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DX5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DY5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DZ5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EA5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EB5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EC5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ED5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EE5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EF5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EG5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EH5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EI5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EJ5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EK5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EL5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EM5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EN5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EO5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EP5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EQ5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ER5" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ES5">
+        <v>0</v>
+      </c>
+      <c r="ET5">
+        <v>0</v>
+      </c>
+      <c r="EU5">
+        <v>0</v>
+      </c>
+      <c r="EV5">
+        <v>0</v>
+      </c>
+      <c r="EW5">
+        <v>0</v>
+      </c>
+      <c r="EX5">
+        <v>0</v>
+      </c>
+      <c r="EY5">
+        <v>0</v>
+      </c>
+      <c r="EZ5">
+        <v>0</v>
+      </c>
+      <c r="FA5">
+        <v>0</v>
+      </c>
+      <c r="FB5">
+        <v>0</v>
+      </c>
+      <c r="FC5">
+        <v>0</v>
+      </c>
+      <c r="FD5">
+        <v>0</v>
+      </c>
+      <c r="FE5">
+        <v>0</v>
+      </c>
+      <c r="FF5">
+        <v>0</v>
+      </c>
+      <c r="FG5">
+        <v>0</v>
+      </c>
+      <c r="FH5">
+        <v>0</v>
+      </c>
+      <c r="FI5">
+        <v>0</v>
+      </c>
+      <c r="FJ5">
+        <v>0</v>
+      </c>
+      <c r="FK5">
+        <v>0</v>
+      </c>
+      <c r="FL5">
+        <v>0</v>
+      </c>
+      <c r="FM5">
+        <v>0</v>
+      </c>
+      <c r="FN5">
+        <v>0</v>
+      </c>
+      <c r="FO5">
+        <v>0</v>
+      </c>
+      <c r="FP5">
+        <v>0</v>
+      </c>
+      <c r="FQ5">
+        <v>0</v>
+      </c>
+      <c r="FR5">
+        <v>0</v>
+      </c>
+      <c r="FS5">
+        <v>0</v>
+      </c>
+      <c r="FT5">
+        <v>0</v>
+      </c>
+      <c r="FU5">
+        <v>0</v>
+      </c>
+      <c r="FV5">
+        <v>0</v>
+      </c>
+      <c r="FW5">
+        <v>0</v>
+      </c>
+      <c r="FX5">
+        <v>0</v>
+      </c>
+      <c r="FY5">
+        <v>0</v>
+      </c>
+      <c r="FZ5">
+        <v>0</v>
+      </c>
+      <c r="GA5">
+        <v>0</v>
+      </c>
+      <c r="GB5">
+        <v>0</v>
+      </c>
+      <c r="GC5">
+        <v>0</v>
+      </c>
+      <c r="GD5">
+        <v>0</v>
+      </c>
+      <c r="GE5">
+        <v>0</v>
+      </c>
+      <c r="GF5">
+        <v>0</v>
+      </c>
+      <c r="GG5">
+        <v>0</v>
+      </c>
+      <c r="GH5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:190">
+      <c r="B6" s="3">
+        <v>3005</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="6">
+        <v>41107</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="7">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="T6" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U6" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V6" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W6" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X6" s="7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="8">
+        <v>7.8982803745438254E-3</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>2.9378940489706906E-2</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>-2.0642185006063019E-2</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>-2.6254044348952659E-2</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>6.107887829488714E-3</v>
+      </c>
+      <c r="AJ6" s="9">
+        <v>-0.3109533516964631</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>3.0282596551786264E-3</v>
+      </c>
+      <c r="AL6" s="9">
+        <v>6.4329767890407711E-3</v>
+      </c>
+      <c r="AM6" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN6" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO6" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP6" s="9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BH6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BI6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BJ6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BK6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BL6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BM6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BN6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BO6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BP6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DD6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DE6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DF6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DG6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DH6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DI6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DJ6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DK6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DL6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DM6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DN6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DO6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DP6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DQ6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DR6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DS6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DT6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DU6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DV6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DW6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DX6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DY6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DZ6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EA6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EB6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EC6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ED6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EE6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EF6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EG6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EH6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EI6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EJ6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EK6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EL6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EM6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EN6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EO6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EP6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EQ6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ER6" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ES6">
+        <v>0</v>
+      </c>
+      <c r="ET6">
+        <v>0</v>
+      </c>
+      <c r="EU6">
+        <v>0</v>
+      </c>
+      <c r="EV6">
+        <v>0</v>
+      </c>
+      <c r="EW6">
+        <v>0</v>
+      </c>
+      <c r="EX6">
+        <v>0</v>
+      </c>
+      <c r="EY6">
+        <v>0</v>
+      </c>
+      <c r="EZ6">
+        <v>0</v>
+      </c>
+      <c r="FA6">
+        <v>0</v>
+      </c>
+      <c r="FB6">
+        <v>0</v>
+      </c>
+      <c r="FC6">
+        <v>0</v>
+      </c>
+      <c r="FD6">
+        <v>0</v>
+      </c>
+      <c r="FE6">
+        <v>0</v>
+      </c>
+      <c r="FF6">
+        <v>0</v>
+      </c>
+      <c r="FG6">
+        <v>0</v>
+      </c>
+      <c r="FH6">
+        <v>0</v>
+      </c>
+      <c r="FI6">
+        <v>0</v>
+      </c>
+      <c r="FJ6">
+        <v>0</v>
+      </c>
+      <c r="FK6">
+        <v>0</v>
+      </c>
+      <c r="FL6">
+        <v>0</v>
+      </c>
+      <c r="FM6">
+        <v>0</v>
+      </c>
+      <c r="FN6">
+        <v>0</v>
+      </c>
+      <c r="FO6">
+        <v>0</v>
+      </c>
+      <c r="FP6">
+        <v>0</v>
+      </c>
+      <c r="FQ6">
+        <v>0</v>
+      </c>
+      <c r="FR6">
+        <v>0</v>
+      </c>
+      <c r="FS6">
+        <v>0</v>
+      </c>
+      <c r="FT6">
+        <v>0</v>
+      </c>
+      <c r="FU6">
+        <v>0</v>
+      </c>
+      <c r="FV6">
+        <v>0</v>
+      </c>
+      <c r="FW6">
+        <v>0</v>
+      </c>
+      <c r="FX6">
+        <v>0</v>
+      </c>
+      <c r="FY6">
+        <v>0</v>
+      </c>
+      <c r="FZ6">
+        <v>0</v>
+      </c>
+      <c r="GA6">
+        <v>0</v>
+      </c>
+      <c r="GB6">
+        <v>0</v>
+      </c>
+      <c r="GC6">
+        <v>0</v>
+      </c>
+      <c r="GD6">
+        <v>0</v>
+      </c>
+      <c r="GE6">
+        <v>0</v>
+      </c>
+      <c r="GF6">
+        <v>0</v>
+      </c>
+      <c r="GG6">
+        <v>0</v>
+      </c>
+      <c r="GH6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1 D1:E1 G1:W1">
-    <cfRule type="expression" dxfId="1" priority="311">
+    <cfRule type="expression" dxfId="18" priority="328">
       <formula>IF(ISNA(A1),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:AC1">
-    <cfRule type="expression" dxfId="0" priority="310">
+    <cfRule type="expression" dxfId="17" priority="327">
       <formula>IF(ISNA(X1),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E6">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>IF(ISNA(B2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:J6">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>IF(ISNA(F2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K6">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>IF(ISNA(K2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L6">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>IF(ISNA(L2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L6">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>IF(L2="Elekta",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>IF(L2="Varian",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M6">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>IF(ISNA(M2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N6">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>IF(ISNA(N2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N6">
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>IF(N2="Monaco",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>IF(N2="Xio",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>IF(N2="Pinnacle",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>IF(N2="Eclipse",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O6">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>IF(ISNA(O2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:R6">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>IF(ISNA(P2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:AD6">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF(ISNA(S2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:BP6">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(ISNA(AE2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DC2:ER6">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(ISNA(DC2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/LocalProgram/upload/uploadingData.xlsx
+++ b/LocalProgram/upload/uploadingData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwan\Desktop\SD\LocalProgram\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcl/Desktop/AABKoala/LocalProgram/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAA9C7E-D037-4E29-AEC3-56E68C30F688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A97D37-9FCD-0743-90E4-F9E780D15682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2916" yWindow="1344" windowWidth="16062" windowHeight="8802" xr2:uid="{73A62333-CCB6-CA4C-8A8C-1227D78D8F69}"/>
+    <workbookView xWindow="2920" yWindow="1340" windowWidth="16060" windowHeight="8800" xr2:uid="{73A62333-CCB6-CA4C-8A8C-1227D78D8F69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,158 +231,6 @@
     <t>TPR_10FFF</t>
   </si>
   <si>
-    <t>Reading_101106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_110106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_205106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_208106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_205206</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_208206</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_205306</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_208306</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_303106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_305106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_403106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_405106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_103110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_110110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_303110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_305110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_403110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_405110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_103115</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_110115</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_303115</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_305115</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_403115</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_405115</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_103118</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_110118</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_303118</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_305118</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_403118</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_405118</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_101105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_110105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_303105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_305105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_103109</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_110109</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_303109</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading_305109</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Misdelivery_101106</t>
   </si>
   <si>
@@ -495,174 +343,6 @@
   </si>
   <si>
     <t>Misdelivery_305109</t>
-  </si>
-  <si>
-    <t>c6_p11_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p12_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p13_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p14_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p15_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p16_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p17_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p11_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p12_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p13_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p14_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p15_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p16_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p17_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p11_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p12_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p13_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p14_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p15_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p17_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p18_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p11_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p12_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p13_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p14_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p15_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p16_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6_p17_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p11_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p12_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p13_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p14_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p15_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p16_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7_p17_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p11_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p12_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p13_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p14_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p15_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p17_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8_p18_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>imrt_misdelivery_c6_p11_6</t>
@@ -889,6 +569,246 @@
   </si>
   <si>
     <t>Tiny</t>
+  </si>
+  <si>
+    <t>code_101106</t>
+  </si>
+  <si>
+    <t>code_110106</t>
+  </si>
+  <si>
+    <t>code_205106</t>
+  </si>
+  <si>
+    <t>code_208106</t>
+  </si>
+  <si>
+    <t>code_205206</t>
+  </si>
+  <si>
+    <t>code_208206</t>
+  </si>
+  <si>
+    <t>code_205306</t>
+  </si>
+  <si>
+    <t>code_208306</t>
+  </si>
+  <si>
+    <t>code_303106</t>
+  </si>
+  <si>
+    <t>code_305106</t>
+  </si>
+  <si>
+    <t>code_403106</t>
+  </si>
+  <si>
+    <t>code_405106</t>
+  </si>
+  <si>
+    <t>code_103110</t>
+  </si>
+  <si>
+    <t>code_110110</t>
+  </si>
+  <si>
+    <t>code_303110</t>
+  </si>
+  <si>
+    <t>code_305110</t>
+  </si>
+  <si>
+    <t>code_403110</t>
+  </si>
+  <si>
+    <t>code_405110</t>
+  </si>
+  <si>
+    <t>code_103115</t>
+  </si>
+  <si>
+    <t>code_110115</t>
+  </si>
+  <si>
+    <t>code_303115</t>
+  </si>
+  <si>
+    <t>code_305115</t>
+  </si>
+  <si>
+    <t>code_403115</t>
+  </si>
+  <si>
+    <t>code_405115</t>
+  </si>
+  <si>
+    <t>code_103118</t>
+  </si>
+  <si>
+    <t>code_110118</t>
+  </si>
+  <si>
+    <t>code_303118</t>
+  </si>
+  <si>
+    <t>code_305118</t>
+  </si>
+  <si>
+    <t>code_403118</t>
+  </si>
+  <si>
+    <t>code_405118</t>
+  </si>
+  <si>
+    <t>code_101105</t>
+  </si>
+  <si>
+    <t>code_110105</t>
+  </si>
+  <si>
+    <t>code_303105</t>
+  </si>
+  <si>
+    <t>code_305105</t>
+  </si>
+  <si>
+    <t>code_103109</t>
+  </si>
+  <si>
+    <t>code_110109</t>
+  </si>
+  <si>
+    <t>code_303109</t>
+  </si>
+  <si>
+    <t>code_305109</t>
+  </si>
+  <si>
+    <t>code_c6_p11_6</t>
+  </si>
+  <si>
+    <t>code_c6_p12_6</t>
+  </si>
+  <si>
+    <t>code_c6_p13_6</t>
+  </si>
+  <si>
+    <t>code_c6_p14_6</t>
+  </si>
+  <si>
+    <t>code_c6_p15_6</t>
+  </si>
+  <si>
+    <t>code_c6_p16_6</t>
+  </si>
+  <si>
+    <t>code_c6_p17_6</t>
+  </si>
+  <si>
+    <t>code_c7_p11_6</t>
+  </si>
+  <si>
+    <t>code_c7_p12_6</t>
+  </si>
+  <si>
+    <t>code_c7_p13_6</t>
+  </si>
+  <si>
+    <t>code_c7_p14_6</t>
+  </si>
+  <si>
+    <t>code_c7_p15_6</t>
+  </si>
+  <si>
+    <t>code_c7_p16_6</t>
+  </si>
+  <si>
+    <t>code_c7_p17_6</t>
+  </si>
+  <si>
+    <t>code_c8_p11_6</t>
+  </si>
+  <si>
+    <t>code_c8_p12_6</t>
+  </si>
+  <si>
+    <t>code_c8_p13_6</t>
+  </si>
+  <si>
+    <t>code_c8_p14_6</t>
+  </si>
+  <si>
+    <t>code_c8_p15_6</t>
+  </si>
+  <si>
+    <t>code_c8_p17_6</t>
+  </si>
+  <si>
+    <t>code_c8_p18_6</t>
+  </si>
+  <si>
+    <t>code_c6_p11_10</t>
+  </si>
+  <si>
+    <t>code_c6_p12_10</t>
+  </si>
+  <si>
+    <t>code_c6_p13_10</t>
+  </si>
+  <si>
+    <t>code_c6_p14_10</t>
+  </si>
+  <si>
+    <t>code_c6_p15_10</t>
+  </si>
+  <si>
+    <t>code_c6_p16_10</t>
+  </si>
+  <si>
+    <t>code_c6_p17_10</t>
+  </si>
+  <si>
+    <t>code_c7_p11_10</t>
+  </si>
+  <si>
+    <t>code_c7_p12_10</t>
+  </si>
+  <si>
+    <t>code_c7_p13_10</t>
+  </si>
+  <si>
+    <t>code_c7_p14_10</t>
+  </si>
+  <si>
+    <t>code_c7_p15_10</t>
+  </si>
+  <si>
+    <t>code_c7_p16_10</t>
+  </si>
+  <si>
+    <t>code_c7_p17_10</t>
+  </si>
+  <si>
+    <t>code_c8_p11_10</t>
+  </si>
+  <si>
+    <t>code_c8_p12_10</t>
+  </si>
+  <si>
+    <t>code_c8_p13_10</t>
+  </si>
+  <si>
+    <t>code_c8_p14_10</t>
+  </si>
+  <si>
+    <t>code_c8_p15_10</t>
+  </si>
+  <si>
+    <t>code_c8_p17_10</t>
+  </si>
+  <si>
+    <t>code_c8_p18_10</t>
   </si>
 </sst>
 </file>
@@ -896,16 +816,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="0.00000000000"/>
-    <numFmt numFmtId="179" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -919,7 +839,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -927,13 +847,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1012,26 +932,36 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1153,7 +1083,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1451,11 +1381,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79CB4E9-1D64-AC4E-8AE1-99DCAA607CA3}">
   <dimension ref="A1:GH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="GD1" workbookViewId="0">
+      <selection activeCell="GI3" sqref="GI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="190" max="190" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:190">
       <c r="A1" s="1" t="s">
@@ -1549,484 +1483,484 @@
         <v>29</v>
       </c>
       <c r="AE1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="BR1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="BS1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="BT1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="BU1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="BV1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BW1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BX1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BY1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="BZ1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="CA1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="CB1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="CC1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="CD1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="CE1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="CF1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="CG1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="CH1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="CI1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="CJ1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="CK1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="CL1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="CM1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="CN1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="CO1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="CP1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="CQ1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="CR1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="CS1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="CT1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="CU1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="CV1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="CW1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="CX1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="CY1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="CZ1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="DA1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="DB1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="DC1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="DN1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="DS1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="DT1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="DU1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="DV1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="DW1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="DX1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="DY1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="EA1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="EB1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="EC1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="ED1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="EE1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="EF1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="EG1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="EH1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="EI1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="EJ1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="EK1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="EL1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="EM1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="EN1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="EO1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="EP1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="EQ1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="ER1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="ES1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="ET1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="EU1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="EV1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="EW1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="EX1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="EY1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="EZ1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="FA1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="FB1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="FC1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="FD1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="FE1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="FF1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="FG1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="FH1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="FI1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="FJ1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="FK1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="FL1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="FM1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="FN1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="FO1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="FP1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="FQ1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="FR1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="FS1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="FT1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="FU1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="FV1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="FW1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="FX1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="FY1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="GA1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="GB1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="GC1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="GD1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="GE1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="GF1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="GG1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="GH1" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="DG1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="DI1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="DO1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="EB1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="EC1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="ED1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="EH1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="EJ1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="EK1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="EL1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="EM1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="EP1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="EQ1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="ER1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="ES1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="EV1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="EW1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="EX1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="EZ1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="FA1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="FB1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="FC1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="FD1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="FE1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="FF1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="FG1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="FH1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="FI1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="FJ1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="FK1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="FL1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="FM1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="FQ1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="FR1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="FS1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="FT1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="FU1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="FY1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="FZ1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="GA1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="GB1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="GD1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="GE1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="GF1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="GG1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="GH1" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:190">
@@ -2035,14 +1969,14 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="4" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="6">
@@ -2050,25 +1984,25 @@
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="7">
@@ -2660,14 +2594,14 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="4" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="6">
@@ -2675,25 +2609,25 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="7">
@@ -3285,14 +3219,14 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="4" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="6">
@@ -3300,25 +3234,25 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="10">
@@ -3909,14 +3843,14 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="4" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="6">
@@ -3924,25 +3858,25 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="7">
@@ -4533,44 +4467,44 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="6">
         <v>41107</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="7">
@@ -5157,91 +5091,91 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:E6">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>IF(ISNA(B2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:J6">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>IF(ISNA(F2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K6">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>IF(ISNA(K2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L6">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>IF(ISNA(L2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L6">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>IF(L2="Elekta",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>IF(L2="Varian",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M6">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>IF(ISNA(M2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N6">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>IF(ISNA(N2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N6">
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>IF(N2="Monaco",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>IF(N2="Xio",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>IF(N2="Pinnacle",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>IF(N2="Eclipse",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O6">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>IF(ISNA(O2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:R6">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>IF(ISNA(P2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:AD6">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>IF(ISNA(S2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:BP6">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>IF(ISNA(AE2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DC2:ER6">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF(ISNA(DC2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1 D1:E1 G1:W1">
-    <cfRule type="expression" dxfId="18" priority="328">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>IF(ISNA(A1),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:AC1">
-    <cfRule type="expression" dxfId="17" priority="327">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(ISNA(X1),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E6">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>IF(ISNA(B2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:J6">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>IF(ISNA(F2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K6">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>IF(ISNA(K2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L6">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>IF(ISNA(L2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L6">
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>IF(L2="Elekta",TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>IF(L2="Varian",TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M6">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>IF(ISNA(M2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N6">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>IF(ISNA(N2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N6">
-    <cfRule type="expression" dxfId="8" priority="6">
-      <formula>IF(N2="Monaco",TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>IF(N2="Xio",TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>IF(N2="Pinnacle",TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>IF(N2="Eclipse",TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O6">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>IF(ISNA(O2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:R6">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>IF(ISNA(P2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:AD6">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>IF(ISNA(S2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:BP6">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF(ISNA(AE2),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DC2:ER6">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(ISNA(DC2),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
